--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C510C8-1676-4D44-B022-09EC6723E3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="405" windowWidth="24750" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="405" windowWidth="24750" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <definedName name="Submittal">[3]Lists!$A$2:$A$3</definedName>
     <definedName name="Zone">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -714,7 +713,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1474,23 +1473,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1510,9 +1509,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1531,6 +1527,15 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1547,27 +1552,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="6"/>
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="10"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Parent row" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="11"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Parent row" xfId="9"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 2" xfId="12"/>
+    <cellStyle name="Table title" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1974,28 +1973,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" customWidth="1"/>
+    <col min="2" max="2" width="50.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.59765625" customWidth="1"/>
+    <col min="8" max="8" width="53.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>124</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>125</v>
       </c>
@@ -2053,15 +2052,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2019</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>168</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>166</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>167</v>
       </c>
@@ -2127,10 +2126,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -2196,17 +2195,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H24" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H25" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>49</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>207</v>
       </c>
@@ -2230,57 +2229,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="H29" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43">
       <formula1>"Summer, Winter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://cdn.misoenergy.org/2020 Wind &amp; Solar Capacity Credit Report408144.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://www.spp.org/documents/61025/elcc solar and wind accreditation.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://cdn.misoenergy.org/2020 Wind &amp; Solar Capacity Credit Report408144.pdf"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://www.spp.org/documents/61025/elcc solar and wind accreditation.pdf"/>
+    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H21" r:id="rId7"/>
+    <hyperlink ref="H28" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -2288,14 +2287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="32.25" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>176</v>
       </c>
@@ -2341,53 +2340,53 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147" t="s">
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-    </row>
-    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+    </row>
+    <row r="3" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -2505,8 +2504,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+    <row r="4" spans="1:40" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="150" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -2627,8 +2626,8 @@
         <v>250948</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A5" s="150"/>
       <c r="B5" s="24" t="s">
         <v>69</v>
       </c>
@@ -2747,8 +2746,8 @@
         <v>274420</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="148"/>
+    <row r="6" spans="1:40" ht="21.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="150"/>
       <c r="B6" s="24" t="s">
         <v>70</v>
       </c>
@@ -2883,8 +2882,8 @@
         <v>2596540.2999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="148"/>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A7" s="150"/>
       <c r="B7" s="24" t="s">
         <v>71</v>
       </c>
@@ -3003,8 +3002,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A8" s="150"/>
       <c r="B8" s="24" t="s">
         <v>73</v>
       </c>
@@ -3123,8 +3122,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A9" s="150"/>
       <c r="B9" s="24" t="s">
         <v>74</v>
       </c>
@@ -3243,8 +3242,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A10" s="150"/>
       <c r="B10" s="24" t="s">
         <v>75</v>
       </c>
@@ -3363,8 +3362,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="148"/>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A11" s="150"/>
       <c r="B11" s="24" t="s">
         <v>29</v>
       </c>
@@ -3483,8 +3482,8 @@
         <v>763944.8</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A12" s="150"/>
       <c r="B12" s="24" t="s">
         <v>76</v>
       </c>
@@ -3603,8 +3602,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A13" s="150"/>
       <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
@@ -3723,8 +3722,8 @@
         <v>841099</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A14" s="150"/>
       <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
@@ -3843,8 +3842,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="148"/>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A15" s="150"/>
       <c r="B15" s="24" t="s">
         <v>78</v>
       </c>
@@ -3963,8 +3962,8 @@
         <v>720420</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="148"/>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A16" s="150"/>
       <c r="B16" s="24" t="s">
         <v>45</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>271076.5</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>32</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>425775.29087786446</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="32.25" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
         <v>80</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>775800</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="32.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="111" t="s">
         <v>82</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>4323483.5908778645</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="116" t="s">
         <v>90</v>
       </c>
@@ -4509,7 +4508,7 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="118" t="s">
         <v>84</v>
       </c>
@@ -4553,7 +4552,7 @@
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22" s="118" t="s">
         <v>85</v>
       </c>
@@ -4597,7 +4596,7 @@
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="118" t="s">
         <v>186</v>
       </c>
@@ -4641,37 +4640,37 @@
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="149" t="s">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A24" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
-      <c r="V24" s="149"/>
-      <c r="W24" s="149"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="149"/>
-      <c r="AA24" s="149"/>
-      <c r="AB24" s="149"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="151"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30"/>
@@ -4685,37 +4684,37 @@
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="146" t="s">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A25" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="146"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="146"/>
-      <c r="Y25" s="146"/>
-      <c r="Z25" s="146"/>
-      <c r="AA25" s="146"/>
-      <c r="AB25" s="146"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="148"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
@@ -4729,37 +4728,37 @@
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="s">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A26" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="146"/>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="146"/>
-      <c r="AB26" s="146"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="148"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
@@ -4773,7 +4772,7 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="121" t="s">
         <v>188</v>
       </c>
@@ -4817,7 +4816,7 @@
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28" s="118" t="s">
         <v>88</v>
       </c>
@@ -4836,19 +4835,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -4856,7 +4855,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>December</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -4974,7 +4973,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>823890</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>823890</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5604,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5614,7 +5613,7 @@
       </c>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5624,7 +5623,7 @@
       </c>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -5651,7 +5650,7 @@
       </c>
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -5661,7 +5660,7 @@
       </c>
       <c r="C61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -5676,71 +5675,73 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="125" t="s">
         <v>213</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="126" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4">
-        <f t="array" ref="B2">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C2" s="4">
-        <f t="array" ref="C2">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A2,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A2,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <f t="array" ref="B3">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C3" s="4">
-        <f t="array" ref="C3">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <f t="array" ref="B4">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C4" s="4">
-        <f t="array" ref="C4">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5766,7 +5767,7 @@
         <v>0.25874935834251522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>4.356377883202317E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5805,59 +5806,59 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <f t="array" ref="B10">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C10" s="4">
-        <f t="array" ref="C10">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <f t="array" ref="B11">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C11" s="4">
-        <f t="array" ref="C11">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4">
-        <f t="array" ref="B12">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C12" s="4">
-        <f t="array" ref="C12">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="4">
-        <f t="array" ref="B13">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C13" s="4">
-        <f t="array" ref="C13">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5870,43 +5871,43 @@
         <v>0.61951796127279213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="4">
-        <f t="array" ref="B15">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C15" s="4">
-        <f t="array" ref="C15">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="4">
-        <f t="array" ref="B16">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C16" s="4">
-        <f t="array" ref="C16">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="4">
-        <f t="array" ref="B17">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
       <c r="C17" s="4">
-        <f t="array" ref="C17">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>1</v>
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5915,337 +5916,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R111"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="55"/>
-    <col min="3" max="3" width="13.140625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="258" width="9.140625" style="55"/>
-    <col min="259" max="259" width="13.140625" style="55" customWidth="1"/>
-    <col min="260" max="260" width="12.42578125" style="55" customWidth="1"/>
-    <col min="261" max="261" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="263" max="514" width="9.140625" style="55"/>
-    <col min="515" max="515" width="13.140625" style="55" customWidth="1"/>
-    <col min="516" max="516" width="12.42578125" style="55" customWidth="1"/>
-    <col min="517" max="517" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="519" max="770" width="9.140625" style="55"/>
-    <col min="771" max="771" width="13.140625" style="55" customWidth="1"/>
-    <col min="772" max="772" width="12.42578125" style="55" customWidth="1"/>
-    <col min="773" max="773" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="775" max="1026" width="9.140625" style="55"/>
-    <col min="1027" max="1027" width="13.140625" style="55" customWidth="1"/>
-    <col min="1028" max="1028" width="12.42578125" style="55" customWidth="1"/>
-    <col min="1029" max="1029" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1282" width="9.140625" style="55"/>
-    <col min="1283" max="1283" width="13.140625" style="55" customWidth="1"/>
-    <col min="1284" max="1284" width="12.42578125" style="55" customWidth="1"/>
-    <col min="1285" max="1285" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1538" width="9.140625" style="55"/>
-    <col min="1539" max="1539" width="13.140625" style="55" customWidth="1"/>
-    <col min="1540" max="1540" width="12.42578125" style="55" customWidth="1"/>
-    <col min="1541" max="1541" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1794" width="9.140625" style="55"/>
-    <col min="1795" max="1795" width="13.140625" style="55" customWidth="1"/>
-    <col min="1796" max="1796" width="12.42578125" style="55" customWidth="1"/>
-    <col min="1797" max="1797" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2050" width="9.140625" style="55"/>
-    <col min="2051" max="2051" width="13.140625" style="55" customWidth="1"/>
-    <col min="2052" max="2052" width="12.42578125" style="55" customWidth="1"/>
-    <col min="2053" max="2053" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2306" width="9.140625" style="55"/>
-    <col min="2307" max="2307" width="13.140625" style="55" customWidth="1"/>
-    <col min="2308" max="2308" width="12.42578125" style="55" customWidth="1"/>
-    <col min="2309" max="2309" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2562" width="9.140625" style="55"/>
-    <col min="2563" max="2563" width="13.140625" style="55" customWidth="1"/>
-    <col min="2564" max="2564" width="12.42578125" style="55" customWidth="1"/>
-    <col min="2565" max="2565" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2818" width="9.140625" style="55"/>
-    <col min="2819" max="2819" width="13.140625" style="55" customWidth="1"/>
-    <col min="2820" max="2820" width="12.42578125" style="55" customWidth="1"/>
-    <col min="2821" max="2821" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3074" width="9.140625" style="55"/>
-    <col min="3075" max="3075" width="13.140625" style="55" customWidth="1"/>
-    <col min="3076" max="3076" width="12.42578125" style="55" customWidth="1"/>
-    <col min="3077" max="3077" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3330" width="9.140625" style="55"/>
-    <col min="3331" max="3331" width="13.140625" style="55" customWidth="1"/>
-    <col min="3332" max="3332" width="12.42578125" style="55" customWidth="1"/>
-    <col min="3333" max="3333" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3586" width="9.140625" style="55"/>
-    <col min="3587" max="3587" width="13.140625" style="55" customWidth="1"/>
-    <col min="3588" max="3588" width="12.42578125" style="55" customWidth="1"/>
-    <col min="3589" max="3589" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3842" width="9.140625" style="55"/>
-    <col min="3843" max="3843" width="13.140625" style="55" customWidth="1"/>
-    <col min="3844" max="3844" width="12.42578125" style="55" customWidth="1"/>
-    <col min="3845" max="3845" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4098" width="9.140625" style="55"/>
-    <col min="4099" max="4099" width="13.140625" style="55" customWidth="1"/>
-    <col min="4100" max="4100" width="12.42578125" style="55" customWidth="1"/>
-    <col min="4101" max="4101" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4354" width="9.140625" style="55"/>
-    <col min="4355" max="4355" width="13.140625" style="55" customWidth="1"/>
-    <col min="4356" max="4356" width="12.42578125" style="55" customWidth="1"/>
-    <col min="4357" max="4357" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4610" width="9.140625" style="55"/>
-    <col min="4611" max="4611" width="13.140625" style="55" customWidth="1"/>
-    <col min="4612" max="4612" width="12.42578125" style="55" customWidth="1"/>
-    <col min="4613" max="4613" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4866" width="9.140625" style="55"/>
-    <col min="4867" max="4867" width="13.140625" style="55" customWidth="1"/>
-    <col min="4868" max="4868" width="12.42578125" style="55" customWidth="1"/>
-    <col min="4869" max="4869" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5122" width="9.140625" style="55"/>
-    <col min="5123" max="5123" width="13.140625" style="55" customWidth="1"/>
-    <col min="5124" max="5124" width="12.42578125" style="55" customWidth="1"/>
-    <col min="5125" max="5125" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5378" width="9.140625" style="55"/>
-    <col min="5379" max="5379" width="13.140625" style="55" customWidth="1"/>
-    <col min="5380" max="5380" width="12.42578125" style="55" customWidth="1"/>
-    <col min="5381" max="5381" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5634" width="9.140625" style="55"/>
-    <col min="5635" max="5635" width="13.140625" style="55" customWidth="1"/>
-    <col min="5636" max="5636" width="12.42578125" style="55" customWidth="1"/>
-    <col min="5637" max="5637" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5890" width="9.140625" style="55"/>
-    <col min="5891" max="5891" width="13.140625" style="55" customWidth="1"/>
-    <col min="5892" max="5892" width="12.42578125" style="55" customWidth="1"/>
-    <col min="5893" max="5893" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6146" width="9.140625" style="55"/>
-    <col min="6147" max="6147" width="13.140625" style="55" customWidth="1"/>
-    <col min="6148" max="6148" width="12.42578125" style="55" customWidth="1"/>
-    <col min="6149" max="6149" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6402" width="9.140625" style="55"/>
-    <col min="6403" max="6403" width="13.140625" style="55" customWidth="1"/>
-    <col min="6404" max="6404" width="12.42578125" style="55" customWidth="1"/>
-    <col min="6405" max="6405" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6658" width="9.140625" style="55"/>
-    <col min="6659" max="6659" width="13.140625" style="55" customWidth="1"/>
-    <col min="6660" max="6660" width="12.42578125" style="55" customWidth="1"/>
-    <col min="6661" max="6661" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6914" width="9.140625" style="55"/>
-    <col min="6915" max="6915" width="13.140625" style="55" customWidth="1"/>
-    <col min="6916" max="6916" width="12.42578125" style="55" customWidth="1"/>
-    <col min="6917" max="6917" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7170" width="9.140625" style="55"/>
-    <col min="7171" max="7171" width="13.140625" style="55" customWidth="1"/>
-    <col min="7172" max="7172" width="12.42578125" style="55" customWidth="1"/>
-    <col min="7173" max="7173" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7426" width="9.140625" style="55"/>
-    <col min="7427" max="7427" width="13.140625" style="55" customWidth="1"/>
-    <col min="7428" max="7428" width="12.42578125" style="55" customWidth="1"/>
-    <col min="7429" max="7429" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7682" width="9.140625" style="55"/>
-    <col min="7683" max="7683" width="13.140625" style="55" customWidth="1"/>
-    <col min="7684" max="7684" width="12.42578125" style="55" customWidth="1"/>
-    <col min="7685" max="7685" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7938" width="9.140625" style="55"/>
-    <col min="7939" max="7939" width="13.140625" style="55" customWidth="1"/>
-    <col min="7940" max="7940" width="12.42578125" style="55" customWidth="1"/>
-    <col min="7941" max="7941" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8194" width="9.140625" style="55"/>
-    <col min="8195" max="8195" width="13.140625" style="55" customWidth="1"/>
-    <col min="8196" max="8196" width="12.42578125" style="55" customWidth="1"/>
-    <col min="8197" max="8197" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8450" width="9.140625" style="55"/>
-    <col min="8451" max="8451" width="13.140625" style="55" customWidth="1"/>
-    <col min="8452" max="8452" width="12.42578125" style="55" customWidth="1"/>
-    <col min="8453" max="8453" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8706" width="9.140625" style="55"/>
-    <col min="8707" max="8707" width="13.140625" style="55" customWidth="1"/>
-    <col min="8708" max="8708" width="12.42578125" style="55" customWidth="1"/>
-    <col min="8709" max="8709" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8962" width="9.140625" style="55"/>
-    <col min="8963" max="8963" width="13.140625" style="55" customWidth="1"/>
-    <col min="8964" max="8964" width="12.42578125" style="55" customWidth="1"/>
-    <col min="8965" max="8965" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9218" width="9.140625" style="55"/>
-    <col min="9219" max="9219" width="13.140625" style="55" customWidth="1"/>
-    <col min="9220" max="9220" width="12.42578125" style="55" customWidth="1"/>
-    <col min="9221" max="9221" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9474" width="9.140625" style="55"/>
-    <col min="9475" max="9475" width="13.140625" style="55" customWidth="1"/>
-    <col min="9476" max="9476" width="12.42578125" style="55" customWidth="1"/>
-    <col min="9477" max="9477" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9730" width="9.140625" style="55"/>
-    <col min="9731" max="9731" width="13.140625" style="55" customWidth="1"/>
-    <col min="9732" max="9732" width="12.42578125" style="55" customWidth="1"/>
-    <col min="9733" max="9733" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9986" width="9.140625" style="55"/>
-    <col min="9987" max="9987" width="13.140625" style="55" customWidth="1"/>
-    <col min="9988" max="9988" width="12.42578125" style="55" customWidth="1"/>
-    <col min="9989" max="9989" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10242" width="9.140625" style="55"/>
-    <col min="10243" max="10243" width="13.140625" style="55" customWidth="1"/>
-    <col min="10244" max="10244" width="12.42578125" style="55" customWidth="1"/>
-    <col min="10245" max="10245" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10498" width="9.140625" style="55"/>
-    <col min="10499" max="10499" width="13.140625" style="55" customWidth="1"/>
-    <col min="10500" max="10500" width="12.42578125" style="55" customWidth="1"/>
-    <col min="10501" max="10501" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10754" width="9.140625" style="55"/>
-    <col min="10755" max="10755" width="13.140625" style="55" customWidth="1"/>
-    <col min="10756" max="10756" width="12.42578125" style="55" customWidth="1"/>
-    <col min="10757" max="10757" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11010" width="9.140625" style="55"/>
-    <col min="11011" max="11011" width="13.140625" style="55" customWidth="1"/>
-    <col min="11012" max="11012" width="12.42578125" style="55" customWidth="1"/>
-    <col min="11013" max="11013" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11266" width="9.140625" style="55"/>
-    <col min="11267" max="11267" width="13.140625" style="55" customWidth="1"/>
-    <col min="11268" max="11268" width="12.42578125" style="55" customWidth="1"/>
-    <col min="11269" max="11269" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11522" width="9.140625" style="55"/>
-    <col min="11523" max="11523" width="13.140625" style="55" customWidth="1"/>
-    <col min="11524" max="11524" width="12.42578125" style="55" customWidth="1"/>
-    <col min="11525" max="11525" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11778" width="9.140625" style="55"/>
-    <col min="11779" max="11779" width="13.140625" style="55" customWidth="1"/>
-    <col min="11780" max="11780" width="12.42578125" style="55" customWidth="1"/>
-    <col min="11781" max="11781" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12034" width="9.140625" style="55"/>
-    <col min="12035" max="12035" width="13.140625" style="55" customWidth="1"/>
-    <col min="12036" max="12036" width="12.42578125" style="55" customWidth="1"/>
-    <col min="12037" max="12037" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12290" width="9.140625" style="55"/>
-    <col min="12291" max="12291" width="13.140625" style="55" customWidth="1"/>
-    <col min="12292" max="12292" width="12.42578125" style="55" customWidth="1"/>
-    <col min="12293" max="12293" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12546" width="9.140625" style="55"/>
-    <col min="12547" max="12547" width="13.140625" style="55" customWidth="1"/>
-    <col min="12548" max="12548" width="12.42578125" style="55" customWidth="1"/>
-    <col min="12549" max="12549" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12802" width="9.140625" style="55"/>
-    <col min="12803" max="12803" width="13.140625" style="55" customWidth="1"/>
-    <col min="12804" max="12804" width="12.42578125" style="55" customWidth="1"/>
-    <col min="12805" max="12805" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13058" width="9.140625" style="55"/>
-    <col min="13059" max="13059" width="13.140625" style="55" customWidth="1"/>
-    <col min="13060" max="13060" width="12.42578125" style="55" customWidth="1"/>
-    <col min="13061" max="13061" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13314" width="9.140625" style="55"/>
-    <col min="13315" max="13315" width="13.140625" style="55" customWidth="1"/>
-    <col min="13316" max="13316" width="12.42578125" style="55" customWidth="1"/>
-    <col min="13317" max="13317" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13570" width="9.140625" style="55"/>
-    <col min="13571" max="13571" width="13.140625" style="55" customWidth="1"/>
-    <col min="13572" max="13572" width="12.42578125" style="55" customWidth="1"/>
-    <col min="13573" max="13573" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13826" width="9.140625" style="55"/>
-    <col min="13827" max="13827" width="13.140625" style="55" customWidth="1"/>
-    <col min="13828" max="13828" width="12.42578125" style="55" customWidth="1"/>
-    <col min="13829" max="13829" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14082" width="9.140625" style="55"/>
-    <col min="14083" max="14083" width="13.140625" style="55" customWidth="1"/>
-    <col min="14084" max="14084" width="12.42578125" style="55" customWidth="1"/>
-    <col min="14085" max="14085" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14338" width="9.140625" style="55"/>
-    <col min="14339" max="14339" width="13.140625" style="55" customWidth="1"/>
-    <col min="14340" max="14340" width="12.42578125" style="55" customWidth="1"/>
-    <col min="14341" max="14341" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14594" width="9.140625" style="55"/>
-    <col min="14595" max="14595" width="13.140625" style="55" customWidth="1"/>
-    <col min="14596" max="14596" width="12.42578125" style="55" customWidth="1"/>
-    <col min="14597" max="14597" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14850" width="9.140625" style="55"/>
-    <col min="14851" max="14851" width="13.140625" style="55" customWidth="1"/>
-    <col min="14852" max="14852" width="12.42578125" style="55" customWidth="1"/>
-    <col min="14853" max="14853" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15106" width="9.140625" style="55"/>
-    <col min="15107" max="15107" width="13.140625" style="55" customWidth="1"/>
-    <col min="15108" max="15108" width="12.42578125" style="55" customWidth="1"/>
-    <col min="15109" max="15109" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15362" width="9.140625" style="55"/>
-    <col min="15363" max="15363" width="13.140625" style="55" customWidth="1"/>
-    <col min="15364" max="15364" width="12.42578125" style="55" customWidth="1"/>
-    <col min="15365" max="15365" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15618" width="9.140625" style="55"/>
-    <col min="15619" max="15619" width="13.140625" style="55" customWidth="1"/>
-    <col min="15620" max="15620" width="12.42578125" style="55" customWidth="1"/>
-    <col min="15621" max="15621" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15874" width="9.140625" style="55"/>
-    <col min="15875" max="15875" width="13.140625" style="55" customWidth="1"/>
-    <col min="15876" max="15876" width="12.42578125" style="55" customWidth="1"/>
-    <col min="15877" max="15877" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16130" width="9.140625" style="55"/>
-    <col min="16131" max="16131" width="13.140625" style="55" customWidth="1"/>
-    <col min="16132" max="16132" width="12.42578125" style="55" customWidth="1"/>
-    <col min="16133" max="16133" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="2" width="9.1328125" style="55"/>
+    <col min="3" max="3" width="13.1328125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="258" width="9.1328125" style="55"/>
+    <col min="259" max="259" width="13.1328125" style="55" customWidth="1"/>
+    <col min="260" max="260" width="12.3984375" style="55" customWidth="1"/>
+    <col min="261" max="261" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="263" max="514" width="9.1328125" style="55"/>
+    <col min="515" max="515" width="13.1328125" style="55" customWidth="1"/>
+    <col min="516" max="516" width="12.3984375" style="55" customWidth="1"/>
+    <col min="517" max="517" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="519" max="770" width="9.1328125" style="55"/>
+    <col min="771" max="771" width="13.1328125" style="55" customWidth="1"/>
+    <col min="772" max="772" width="12.3984375" style="55" customWidth="1"/>
+    <col min="773" max="773" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="775" max="1026" width="9.1328125" style="55"/>
+    <col min="1027" max="1027" width="13.1328125" style="55" customWidth="1"/>
+    <col min="1028" max="1028" width="12.3984375" style="55" customWidth="1"/>
+    <col min="1029" max="1029" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1282" width="9.1328125" style="55"/>
+    <col min="1283" max="1283" width="13.1328125" style="55" customWidth="1"/>
+    <col min="1284" max="1284" width="12.3984375" style="55" customWidth="1"/>
+    <col min="1285" max="1285" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1538" width="9.1328125" style="55"/>
+    <col min="1539" max="1539" width="13.1328125" style="55" customWidth="1"/>
+    <col min="1540" max="1540" width="12.3984375" style="55" customWidth="1"/>
+    <col min="1541" max="1541" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1794" width="9.1328125" style="55"/>
+    <col min="1795" max="1795" width="13.1328125" style="55" customWidth="1"/>
+    <col min="1796" max="1796" width="12.3984375" style="55" customWidth="1"/>
+    <col min="1797" max="1797" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2050" width="9.1328125" style="55"/>
+    <col min="2051" max="2051" width="13.1328125" style="55" customWidth="1"/>
+    <col min="2052" max="2052" width="12.3984375" style="55" customWidth="1"/>
+    <col min="2053" max="2053" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2306" width="9.1328125" style="55"/>
+    <col min="2307" max="2307" width="13.1328125" style="55" customWidth="1"/>
+    <col min="2308" max="2308" width="12.3984375" style="55" customWidth="1"/>
+    <col min="2309" max="2309" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2562" width="9.1328125" style="55"/>
+    <col min="2563" max="2563" width="13.1328125" style="55" customWidth="1"/>
+    <col min="2564" max="2564" width="12.3984375" style="55" customWidth="1"/>
+    <col min="2565" max="2565" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2818" width="9.1328125" style="55"/>
+    <col min="2819" max="2819" width="13.1328125" style="55" customWidth="1"/>
+    <col min="2820" max="2820" width="12.3984375" style="55" customWidth="1"/>
+    <col min="2821" max="2821" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3074" width="9.1328125" style="55"/>
+    <col min="3075" max="3075" width="13.1328125" style="55" customWidth="1"/>
+    <col min="3076" max="3076" width="12.3984375" style="55" customWidth="1"/>
+    <col min="3077" max="3077" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3330" width="9.1328125" style="55"/>
+    <col min="3331" max="3331" width="13.1328125" style="55" customWidth="1"/>
+    <col min="3332" max="3332" width="12.3984375" style="55" customWidth="1"/>
+    <col min="3333" max="3333" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3586" width="9.1328125" style="55"/>
+    <col min="3587" max="3587" width="13.1328125" style="55" customWidth="1"/>
+    <col min="3588" max="3588" width="12.3984375" style="55" customWidth="1"/>
+    <col min="3589" max="3589" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3842" width="9.1328125" style="55"/>
+    <col min="3843" max="3843" width="13.1328125" style="55" customWidth="1"/>
+    <col min="3844" max="3844" width="12.3984375" style="55" customWidth="1"/>
+    <col min="3845" max="3845" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4098" width="9.1328125" style="55"/>
+    <col min="4099" max="4099" width="13.1328125" style="55" customWidth="1"/>
+    <col min="4100" max="4100" width="12.3984375" style="55" customWidth="1"/>
+    <col min="4101" max="4101" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4354" width="9.1328125" style="55"/>
+    <col min="4355" max="4355" width="13.1328125" style="55" customWidth="1"/>
+    <col min="4356" max="4356" width="12.3984375" style="55" customWidth="1"/>
+    <col min="4357" max="4357" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4610" width="9.1328125" style="55"/>
+    <col min="4611" max="4611" width="13.1328125" style="55" customWidth="1"/>
+    <col min="4612" max="4612" width="12.3984375" style="55" customWidth="1"/>
+    <col min="4613" max="4613" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4866" width="9.1328125" style="55"/>
+    <col min="4867" max="4867" width="13.1328125" style="55" customWidth="1"/>
+    <col min="4868" max="4868" width="12.3984375" style="55" customWidth="1"/>
+    <col min="4869" max="4869" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5122" width="9.1328125" style="55"/>
+    <col min="5123" max="5123" width="13.1328125" style="55" customWidth="1"/>
+    <col min="5124" max="5124" width="12.3984375" style="55" customWidth="1"/>
+    <col min="5125" max="5125" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5378" width="9.1328125" style="55"/>
+    <col min="5379" max="5379" width="13.1328125" style="55" customWidth="1"/>
+    <col min="5380" max="5380" width="12.3984375" style="55" customWidth="1"/>
+    <col min="5381" max="5381" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5634" width="9.1328125" style="55"/>
+    <col min="5635" max="5635" width="13.1328125" style="55" customWidth="1"/>
+    <col min="5636" max="5636" width="12.3984375" style="55" customWidth="1"/>
+    <col min="5637" max="5637" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5890" width="9.1328125" style="55"/>
+    <col min="5891" max="5891" width="13.1328125" style="55" customWidth="1"/>
+    <col min="5892" max="5892" width="12.3984375" style="55" customWidth="1"/>
+    <col min="5893" max="5893" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6146" width="9.1328125" style="55"/>
+    <col min="6147" max="6147" width="13.1328125" style="55" customWidth="1"/>
+    <col min="6148" max="6148" width="12.3984375" style="55" customWidth="1"/>
+    <col min="6149" max="6149" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6402" width="9.1328125" style="55"/>
+    <col min="6403" max="6403" width="13.1328125" style="55" customWidth="1"/>
+    <col min="6404" max="6404" width="12.3984375" style="55" customWidth="1"/>
+    <col min="6405" max="6405" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6658" width="9.1328125" style="55"/>
+    <col min="6659" max="6659" width="13.1328125" style="55" customWidth="1"/>
+    <col min="6660" max="6660" width="12.3984375" style="55" customWidth="1"/>
+    <col min="6661" max="6661" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6914" width="9.1328125" style="55"/>
+    <col min="6915" max="6915" width="13.1328125" style="55" customWidth="1"/>
+    <col min="6916" max="6916" width="12.3984375" style="55" customWidth="1"/>
+    <col min="6917" max="6917" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7170" width="9.1328125" style="55"/>
+    <col min="7171" max="7171" width="13.1328125" style="55" customWidth="1"/>
+    <col min="7172" max="7172" width="12.3984375" style="55" customWidth="1"/>
+    <col min="7173" max="7173" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7426" width="9.1328125" style="55"/>
+    <col min="7427" max="7427" width="13.1328125" style="55" customWidth="1"/>
+    <col min="7428" max="7428" width="12.3984375" style="55" customWidth="1"/>
+    <col min="7429" max="7429" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7682" width="9.1328125" style="55"/>
+    <col min="7683" max="7683" width="13.1328125" style="55" customWidth="1"/>
+    <col min="7684" max="7684" width="12.3984375" style="55" customWidth="1"/>
+    <col min="7685" max="7685" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7938" width="9.1328125" style="55"/>
+    <col min="7939" max="7939" width="13.1328125" style="55" customWidth="1"/>
+    <col min="7940" max="7940" width="12.3984375" style="55" customWidth="1"/>
+    <col min="7941" max="7941" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8194" width="9.1328125" style="55"/>
+    <col min="8195" max="8195" width="13.1328125" style="55" customWidth="1"/>
+    <col min="8196" max="8196" width="12.3984375" style="55" customWidth="1"/>
+    <col min="8197" max="8197" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8450" width="9.1328125" style="55"/>
+    <col min="8451" max="8451" width="13.1328125" style="55" customWidth="1"/>
+    <col min="8452" max="8452" width="12.3984375" style="55" customWidth="1"/>
+    <col min="8453" max="8453" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8706" width="9.1328125" style="55"/>
+    <col min="8707" max="8707" width="13.1328125" style="55" customWidth="1"/>
+    <col min="8708" max="8708" width="12.3984375" style="55" customWidth="1"/>
+    <col min="8709" max="8709" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8962" width="9.1328125" style="55"/>
+    <col min="8963" max="8963" width="13.1328125" style="55" customWidth="1"/>
+    <col min="8964" max="8964" width="12.3984375" style="55" customWidth="1"/>
+    <col min="8965" max="8965" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9218" width="9.1328125" style="55"/>
+    <col min="9219" max="9219" width="13.1328125" style="55" customWidth="1"/>
+    <col min="9220" max="9220" width="12.3984375" style="55" customWidth="1"/>
+    <col min="9221" max="9221" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9474" width="9.1328125" style="55"/>
+    <col min="9475" max="9475" width="13.1328125" style="55" customWidth="1"/>
+    <col min="9476" max="9476" width="12.3984375" style="55" customWidth="1"/>
+    <col min="9477" max="9477" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9730" width="9.1328125" style="55"/>
+    <col min="9731" max="9731" width="13.1328125" style="55" customWidth="1"/>
+    <col min="9732" max="9732" width="12.3984375" style="55" customWidth="1"/>
+    <col min="9733" max="9733" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9986" width="9.1328125" style="55"/>
+    <col min="9987" max="9987" width="13.1328125" style="55" customWidth="1"/>
+    <col min="9988" max="9988" width="12.3984375" style="55" customWidth="1"/>
+    <col min="9989" max="9989" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10242" width="9.1328125" style="55"/>
+    <col min="10243" max="10243" width="13.1328125" style="55" customWidth="1"/>
+    <col min="10244" max="10244" width="12.3984375" style="55" customWidth="1"/>
+    <col min="10245" max="10245" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10498" width="9.1328125" style="55"/>
+    <col min="10499" max="10499" width="13.1328125" style="55" customWidth="1"/>
+    <col min="10500" max="10500" width="12.3984375" style="55" customWidth="1"/>
+    <col min="10501" max="10501" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10754" width="9.1328125" style="55"/>
+    <col min="10755" max="10755" width="13.1328125" style="55" customWidth="1"/>
+    <col min="10756" max="10756" width="12.3984375" style="55" customWidth="1"/>
+    <col min="10757" max="10757" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11010" width="9.1328125" style="55"/>
+    <col min="11011" max="11011" width="13.1328125" style="55" customWidth="1"/>
+    <col min="11012" max="11012" width="12.3984375" style="55" customWidth="1"/>
+    <col min="11013" max="11013" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11266" width="9.1328125" style="55"/>
+    <col min="11267" max="11267" width="13.1328125" style="55" customWidth="1"/>
+    <col min="11268" max="11268" width="12.3984375" style="55" customWidth="1"/>
+    <col min="11269" max="11269" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11522" width="9.1328125" style="55"/>
+    <col min="11523" max="11523" width="13.1328125" style="55" customWidth="1"/>
+    <col min="11524" max="11524" width="12.3984375" style="55" customWidth="1"/>
+    <col min="11525" max="11525" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11778" width="9.1328125" style="55"/>
+    <col min="11779" max="11779" width="13.1328125" style="55" customWidth="1"/>
+    <col min="11780" max="11780" width="12.3984375" style="55" customWidth="1"/>
+    <col min="11781" max="11781" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12034" width="9.1328125" style="55"/>
+    <col min="12035" max="12035" width="13.1328125" style="55" customWidth="1"/>
+    <col min="12036" max="12036" width="12.3984375" style="55" customWidth="1"/>
+    <col min="12037" max="12037" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12290" width="9.1328125" style="55"/>
+    <col min="12291" max="12291" width="13.1328125" style="55" customWidth="1"/>
+    <col min="12292" max="12292" width="12.3984375" style="55" customWidth="1"/>
+    <col min="12293" max="12293" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12546" width="9.1328125" style="55"/>
+    <col min="12547" max="12547" width="13.1328125" style="55" customWidth="1"/>
+    <col min="12548" max="12548" width="12.3984375" style="55" customWidth="1"/>
+    <col min="12549" max="12549" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12802" width="9.1328125" style="55"/>
+    <col min="12803" max="12803" width="13.1328125" style="55" customWidth="1"/>
+    <col min="12804" max="12804" width="12.3984375" style="55" customWidth="1"/>
+    <col min="12805" max="12805" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13058" width="9.1328125" style="55"/>
+    <col min="13059" max="13059" width="13.1328125" style="55" customWidth="1"/>
+    <col min="13060" max="13060" width="12.3984375" style="55" customWidth="1"/>
+    <col min="13061" max="13061" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13314" width="9.1328125" style="55"/>
+    <col min="13315" max="13315" width="13.1328125" style="55" customWidth="1"/>
+    <col min="13316" max="13316" width="12.3984375" style="55" customWidth="1"/>
+    <col min="13317" max="13317" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13570" width="9.1328125" style="55"/>
+    <col min="13571" max="13571" width="13.1328125" style="55" customWidth="1"/>
+    <col min="13572" max="13572" width="12.3984375" style="55" customWidth="1"/>
+    <col min="13573" max="13573" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13826" width="9.1328125" style="55"/>
+    <col min="13827" max="13827" width="13.1328125" style="55" customWidth="1"/>
+    <col min="13828" max="13828" width="12.3984375" style="55" customWidth="1"/>
+    <col min="13829" max="13829" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14082" width="9.1328125" style="55"/>
+    <col min="14083" max="14083" width="13.1328125" style="55" customWidth="1"/>
+    <col min="14084" max="14084" width="12.3984375" style="55" customWidth="1"/>
+    <col min="14085" max="14085" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14338" width="9.1328125" style="55"/>
+    <col min="14339" max="14339" width="13.1328125" style="55" customWidth="1"/>
+    <col min="14340" max="14340" width="12.3984375" style="55" customWidth="1"/>
+    <col min="14341" max="14341" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14594" width="9.1328125" style="55"/>
+    <col min="14595" max="14595" width="13.1328125" style="55" customWidth="1"/>
+    <col min="14596" max="14596" width="12.3984375" style="55" customWidth="1"/>
+    <col min="14597" max="14597" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14850" width="9.1328125" style="55"/>
+    <col min="14851" max="14851" width="13.1328125" style="55" customWidth="1"/>
+    <col min="14852" max="14852" width="12.3984375" style="55" customWidth="1"/>
+    <col min="14853" max="14853" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15106" width="9.1328125" style="55"/>
+    <col min="15107" max="15107" width="13.1328125" style="55" customWidth="1"/>
+    <col min="15108" max="15108" width="12.3984375" style="55" customWidth="1"/>
+    <col min="15109" max="15109" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15362" width="9.1328125" style="55"/>
+    <col min="15363" max="15363" width="13.1328125" style="55" customWidth="1"/>
+    <col min="15364" max="15364" width="12.3984375" style="55" customWidth="1"/>
+    <col min="15365" max="15365" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15618" width="9.1328125" style="55"/>
+    <col min="15619" max="15619" width="13.1328125" style="55" customWidth="1"/>
+    <col min="15620" max="15620" width="12.3984375" style="55" customWidth="1"/>
+    <col min="15621" max="15621" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15874" width="9.1328125" style="55"/>
+    <col min="15875" max="15875" width="13.1328125" style="55" customWidth="1"/>
+    <col min="15876" max="15876" width="12.3984375" style="55" customWidth="1"/>
+    <col min="15877" max="15877" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16130" width="9.1328125" style="55"/>
+    <col min="16131" max="16131" width="13.1328125" style="55" customWidth="1"/>
+    <col min="16132" max="16132" width="12.3984375" style="55" customWidth="1"/>
+    <col min="16133" max="16133" width="10.265625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="9.1328125" style="55"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A3" s="54" t="s">
         <v>111</v>
       </c>
@@ -6253,7 +6254,7 @@
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
@@ -6261,7 +6262,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>112</v>
       </c>
@@ -6269,17 +6270,17 @@
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B8" s="58" t="s">
         <v>113</v>
       </c>
@@ -6288,36 +6289,36 @@
       <c r="E8" s="59"/>
       <c r="F8" s="60"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="126"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B10" s="64">
         <v>1</v>
       </c>
-      <c r="C10" s="125">
+      <c r="C10" s="127">
         <v>0.04</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="65"/>
       <c r="F10" s="63"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B11" s="64">
         <v>2</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="127">
         <v>0.03</v>
       </c>
-      <c r="D11" s="125"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="65"/>
       <c r="F11" s="63"/>
       <c r="G11" s="65"/>
@@ -6333,132 +6334,132 @@
       <c r="Q11" s="65"/>
       <c r="R11" s="65"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B12" s="64">
         <v>3</v>
       </c>
-      <c r="C12" s="125">
+      <c r="C12" s="127">
         <v>0.18</v>
       </c>
-      <c r="D12" s="125"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="65"/>
       <c r="F12" s="63"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B13" s="64">
         <v>4</v>
       </c>
-      <c r="C13" s="125">
+      <c r="C13" s="127">
         <v>0.15</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="65"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B14" s="64">
         <v>5</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14" s="127">
         <v>0.16</v>
       </c>
-      <c r="D14" s="125"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="65"/>
       <c r="F14" s="63"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B15" s="64">
         <v>6</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="127">
         <v>0.31</v>
       </c>
-      <c r="D15" s="125"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="65"/>
       <c r="F15" s="63"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B16" s="64">
         <v>7</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="127">
         <v>0.39</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="65"/>
       <c r="F16" s="63"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B17" s="64">
         <v>8</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="127">
         <v>0.27</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="65"/>
       <c r="F17" s="63"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B18" s="64">
         <v>9</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="127">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D18" s="125"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="65"/>
       <c r="F18" s="63"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B19" s="64">
         <v>10</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="127">
         <v>0.02</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="65"/>
       <c r="F19" s="63"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B20" s="64">
         <v>11</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="127">
         <v>0.02</v>
       </c>
-      <c r="D20" s="125"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="65"/>
       <c r="F20" s="63"/>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B21" s="64">
         <v>12</v>
       </c>
-      <c r="C21" s="125">
+      <c r="C21" s="127">
         <v>0</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="65"/>
       <c r="F21" s="63"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="63"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="F22" s="63"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B23" s="64"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
       <c r="E23" s="68"/>
       <c r="F23" s="67"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B24" s="58" t="s">
         <v>3</v>
       </c>
@@ -6467,213 +6468,213 @@
       <c r="E24" s="69"/>
       <c r="F24" s="70"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="126"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="62"/>
       <c r="F25" s="63"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B26" s="64">
         <v>1</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="127">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="68"/>
       <c r="F26" s="63"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B27" s="64">
         <v>2</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="127">
         <v>0.12</v>
       </c>
-      <c r="D27" s="125"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="68"/>
       <c r="F27" s="63"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B28" s="64">
         <v>3</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="127">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D28" s="125"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="68"/>
       <c r="F28" s="63"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B29" s="64">
         <v>4</v>
       </c>
-      <c r="C29" s="125">
+      <c r="C29" s="127">
         <v>0.25</v>
       </c>
-      <c r="D29" s="125"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="68"/>
       <c r="F29" s="63"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B30" s="64">
         <v>5</v>
       </c>
-      <c r="C30" s="125">
+      <c r="C30" s="127">
         <v>0.25</v>
       </c>
-      <c r="D30" s="125"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="68"/>
       <c r="F30" s="63"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B31" s="64">
         <v>6</v>
       </c>
-      <c r="C31" s="125">
+      <c r="C31" s="127">
         <v>0.33</v>
       </c>
-      <c r="D31" s="125"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="68"/>
       <c r="F31" s="63"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B32" s="64">
         <v>7</v>
       </c>
-      <c r="C32" s="125">
+      <c r="C32" s="127">
         <v>0.23</v>
       </c>
-      <c r="D32" s="125"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="68"/>
       <c r="F32" s="63"/>
     </row>
-    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B33" s="64">
         <v>8</v>
       </c>
-      <c r="C33" s="125">
+      <c r="C33" s="127">
         <v>0.21</v>
       </c>
-      <c r="D33" s="125"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="68"/>
       <c r="F33" s="63"/>
     </row>
-    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B34" s="64">
         <v>9</v>
       </c>
-      <c r="C34" s="125">
+      <c r="C34" s="127">
         <v>0.15</v>
       </c>
-      <c r="D34" s="125"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="68"/>
       <c r="F34" s="63"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B35" s="64">
         <v>10</v>
       </c>
-      <c r="C35" s="125">
+      <c r="C35" s="127">
         <v>0.08</v>
       </c>
-      <c r="D35" s="125"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="68"/>
       <c r="F35" s="63"/>
     </row>
-    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B36" s="64">
         <v>11</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="127">
         <v>0.12</v>
       </c>
-      <c r="D36" s="125"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="68"/>
       <c r="F36" s="63"/>
     </row>
-    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B37" s="64">
         <v>12</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37" s="127">
         <v>0.13</v>
       </c>
-      <c r="D37" s="125"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="68"/>
       <c r="F37" s="63"/>
     </row>
-    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B38" s="64"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
       <c r="E38" s="68"/>
       <c r="F38" s="63"/>
     </row>
-    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B39" s="64"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
       <c r="E39" s="68"/>
       <c r="F39" s="63"/>
     </row>
-    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B40" s="64"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
       <c r="E40" s="68"/>
       <c r="F40" s="63"/>
     </row>
-    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B41" s="64"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
       <c r="E41" s="68"/>
       <c r="F41" s="63"/>
     </row>
-    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B42" s="64"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
       <c r="E42" s="68"/>
       <c r="F42" s="63"/>
     </row>
-    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B43" s="64"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
       <c r="E43" s="68"/>
       <c r="F43" s="63"/>
     </row>
-    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B44" s="64"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
       <c r="E44" s="68"/>
       <c r="F44" s="63"/>
     </row>
-    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B45" s="64"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="E45" s="68"/>
       <c r="F45" s="63"/>
     </row>
-    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B46" s="63"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
     </row>
-    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B47" s="58" t="s">
         <v>17</v>
       </c>
@@ -6682,7 +6683,7 @@
       <c r="E47" s="59"/>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B48" s="61" t="s">
         <v>16</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B49" s="64">
         <v>1</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B50" s="64">
         <v>2</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B51" s="64">
         <v>3</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B52" s="64">
         <v>4</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B53" s="64">
         <v>5</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B54" s="64">
         <v>6</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B55" s="64">
         <v>7</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B56" s="64">
         <v>8</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B57" s="64">
         <v>9</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B58" s="64">
         <v>10</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B59" s="64">
         <v>11</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B60" s="64">
         <v>12</v>
       </c>
@@ -6903,14 +6904,14 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="66"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
     </row>
-    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B62" s="58" t="s">
         <v>18</v>
       </c>
@@ -6919,7 +6920,7 @@
       <c r="E62" s="59"/>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B63" s="61" t="s">
         <v>16</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B64" s="64">
         <v>1</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B65" s="64">
         <v>2</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B66" s="64">
         <v>3</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B67" s="64">
         <v>4</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B68" s="64">
         <v>5</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B69" s="64">
         <v>6</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B70" s="64">
         <v>7</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B71" s="64">
         <v>8</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B72" s="64">
         <v>9</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B73" s="64">
         <v>10</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B74" s="64">
         <v>11</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B75" s="64">
         <v>12</v>
       </c>
@@ -7140,14 +7141,14 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76" s="63"/>
       <c r="C76" s="63"/>
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
     </row>
-    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B77" s="58" t="s">
         <v>4</v>
       </c>
@@ -7156,7 +7157,7 @@
       <c r="E77" s="59"/>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B78" s="61" t="s">
         <v>16</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B79" s="64">
         <v>1</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B80" s="64">
         <v>2</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B81" s="64">
         <v>3</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B82" s="64">
         <v>4</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B83" s="64">
         <v>5</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B84" s="64">
         <v>6</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B85" s="64">
         <v>7</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B86" s="64">
         <v>8</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B87" s="64">
         <v>9</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B88" s="64">
         <v>10</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B89" s="64">
         <v>11</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B90" s="64">
         <v>12</v>
       </c>
@@ -7377,21 +7378,21 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91" s="63"/>
       <c r="C91" s="63"/>
       <c r="D91" s="66"/>
       <c r="E91" s="66"/>
       <c r="F91" s="66"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92" s="63"/>
       <c r="C92" s="63"/>
       <c r="D92" s="66"/>
       <c r="E92" s="66"/>
       <c r="F92" s="66"/>
     </row>
-    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B93" s="75" t="s">
         <v>19</v>
       </c>
@@ -7400,7 +7401,7 @@
       <c r="E93" s="59"/>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B94" s="61" t="s">
         <v>16</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B95" s="64">
         <v>1</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B96" s="64">
         <v>2</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B97" s="64">
         <v>3</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B98" s="64">
         <v>4</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B99" s="64">
         <v>5</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B100" s="64">
         <v>6</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B101" s="64">
         <v>7</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B102" s="64">
         <v>8</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B103" s="64">
         <v>9</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B104" s="64">
         <v>10</v>
       </c>
@@ -7587,7 +7588,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B105" s="64">
         <v>11</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B106" s="64">
         <v>12</v>
       </c>
@@ -7621,22 +7622,22 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D107" s="56"/>
       <c r="E107" s="56"/>
       <c r="F107" s="56"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D108" s="56"/>
       <c r="E108" s="56"/>
       <c r="F108" s="56"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D109" s="56"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>120</v>
       </c>
@@ -7644,7 +7645,7 @@
       <c r="E110" s="56"/>
       <c r="F110" s="56"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>121</v>
       </c>
@@ -7654,15 +7655,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -7675,12 +7673,15 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7691,156 +7692,156 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="257" max="257" width="4.28515625" customWidth="1"/>
-    <col min="258" max="258" width="10.140625" customWidth="1"/>
-    <col min="513" max="513" width="4.28515625" customWidth="1"/>
-    <col min="514" max="514" width="10.140625" customWidth="1"/>
-    <col min="769" max="769" width="4.28515625" customWidth="1"/>
-    <col min="770" max="770" width="10.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="4.28515625" customWidth="1"/>
-    <col min="1026" max="1026" width="10.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="4.28515625" customWidth="1"/>
-    <col min="1282" max="1282" width="10.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="4.28515625" customWidth="1"/>
-    <col min="1538" max="1538" width="10.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="4.28515625" customWidth="1"/>
-    <col min="1794" max="1794" width="10.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="4.28515625" customWidth="1"/>
-    <col min="2050" max="2050" width="10.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="4.28515625" customWidth="1"/>
-    <col min="2306" max="2306" width="10.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="4.28515625" customWidth="1"/>
-    <col min="2562" max="2562" width="10.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="4.28515625" customWidth="1"/>
-    <col min="2818" max="2818" width="10.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="4.28515625" customWidth="1"/>
-    <col min="3074" max="3074" width="10.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="4.28515625" customWidth="1"/>
-    <col min="3330" max="3330" width="10.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="4.28515625" customWidth="1"/>
-    <col min="3586" max="3586" width="10.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="4.28515625" customWidth="1"/>
-    <col min="3842" max="3842" width="10.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="4.28515625" customWidth="1"/>
-    <col min="4098" max="4098" width="10.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="4.28515625" customWidth="1"/>
-    <col min="4354" max="4354" width="10.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="4.28515625" customWidth="1"/>
-    <col min="4610" max="4610" width="10.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="4.28515625" customWidth="1"/>
-    <col min="4866" max="4866" width="10.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="4.28515625" customWidth="1"/>
-    <col min="5122" max="5122" width="10.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="4.28515625" customWidth="1"/>
-    <col min="5378" max="5378" width="10.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="4.28515625" customWidth="1"/>
-    <col min="5634" max="5634" width="10.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="4.28515625" customWidth="1"/>
-    <col min="5890" max="5890" width="10.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="4.28515625" customWidth="1"/>
-    <col min="6146" max="6146" width="10.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="4.28515625" customWidth="1"/>
-    <col min="6402" max="6402" width="10.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="4.28515625" customWidth="1"/>
-    <col min="6658" max="6658" width="10.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="4.28515625" customWidth="1"/>
-    <col min="6914" max="6914" width="10.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="4.28515625" customWidth="1"/>
-    <col min="7170" max="7170" width="10.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="4.28515625" customWidth="1"/>
-    <col min="7426" max="7426" width="10.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="4.28515625" customWidth="1"/>
-    <col min="7682" max="7682" width="10.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="4.28515625" customWidth="1"/>
-    <col min="7938" max="7938" width="10.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="4.28515625" customWidth="1"/>
-    <col min="8194" max="8194" width="10.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="4.28515625" customWidth="1"/>
-    <col min="8450" max="8450" width="10.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="4.28515625" customWidth="1"/>
-    <col min="8706" max="8706" width="10.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="4.28515625" customWidth="1"/>
-    <col min="8962" max="8962" width="10.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="4.28515625" customWidth="1"/>
-    <col min="9218" max="9218" width="10.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="4.28515625" customWidth="1"/>
-    <col min="9474" max="9474" width="10.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="4.28515625" customWidth="1"/>
-    <col min="9730" max="9730" width="10.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="4.28515625" customWidth="1"/>
-    <col min="9986" max="9986" width="10.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="4.28515625" customWidth="1"/>
-    <col min="10242" max="10242" width="10.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="4.28515625" customWidth="1"/>
-    <col min="10498" max="10498" width="10.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="4.28515625" customWidth="1"/>
-    <col min="10754" max="10754" width="10.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="4.28515625" customWidth="1"/>
-    <col min="11010" max="11010" width="10.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="4.28515625" customWidth="1"/>
-    <col min="11266" max="11266" width="10.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="4.28515625" customWidth="1"/>
-    <col min="11522" max="11522" width="10.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="4.28515625" customWidth="1"/>
-    <col min="11778" max="11778" width="10.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="4.28515625" customWidth="1"/>
-    <col min="12034" max="12034" width="10.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="4.28515625" customWidth="1"/>
-    <col min="12290" max="12290" width="10.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="4.28515625" customWidth="1"/>
-    <col min="12546" max="12546" width="10.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="4.28515625" customWidth="1"/>
-    <col min="12802" max="12802" width="10.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="4.28515625" customWidth="1"/>
-    <col min="13058" max="13058" width="10.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="4.28515625" customWidth="1"/>
-    <col min="13314" max="13314" width="10.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="4.28515625" customWidth="1"/>
-    <col min="13570" max="13570" width="10.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="4.28515625" customWidth="1"/>
-    <col min="13826" max="13826" width="10.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="4.28515625" customWidth="1"/>
-    <col min="14082" max="14082" width="10.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="4.28515625" customWidth="1"/>
-    <col min="14338" max="14338" width="10.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="4.28515625" customWidth="1"/>
-    <col min="14594" max="14594" width="10.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="4.28515625" customWidth="1"/>
-    <col min="14850" max="14850" width="10.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="4.28515625" customWidth="1"/>
-    <col min="15106" max="15106" width="10.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="4.28515625" customWidth="1"/>
-    <col min="15362" max="15362" width="10.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="4.28515625" customWidth="1"/>
-    <col min="15618" max="15618" width="10.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="4.28515625" customWidth="1"/>
-    <col min="15874" max="15874" width="10.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="4.28515625" customWidth="1"/>
-    <col min="16130" max="16130" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="257" max="257" width="4.265625" customWidth="1"/>
+    <col min="258" max="258" width="10.1328125" customWidth="1"/>
+    <col min="513" max="513" width="4.265625" customWidth="1"/>
+    <col min="514" max="514" width="10.1328125" customWidth="1"/>
+    <col min="769" max="769" width="4.265625" customWidth="1"/>
+    <col min="770" max="770" width="10.1328125" customWidth="1"/>
+    <col min="1025" max="1025" width="4.265625" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1328125" customWidth="1"/>
+    <col min="1281" max="1281" width="4.265625" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1328125" customWidth="1"/>
+    <col min="1537" max="1537" width="4.265625" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1328125" customWidth="1"/>
+    <col min="1793" max="1793" width="4.265625" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1328125" customWidth="1"/>
+    <col min="2049" max="2049" width="4.265625" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1328125" customWidth="1"/>
+    <col min="2305" max="2305" width="4.265625" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1328125" customWidth="1"/>
+    <col min="2561" max="2561" width="4.265625" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1328125" customWidth="1"/>
+    <col min="2817" max="2817" width="4.265625" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1328125" customWidth="1"/>
+    <col min="3073" max="3073" width="4.265625" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1328125" customWidth="1"/>
+    <col min="3329" max="3329" width="4.265625" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1328125" customWidth="1"/>
+    <col min="3585" max="3585" width="4.265625" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1328125" customWidth="1"/>
+    <col min="3841" max="3841" width="4.265625" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1328125" customWidth="1"/>
+    <col min="4097" max="4097" width="4.265625" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1328125" customWidth="1"/>
+    <col min="4353" max="4353" width="4.265625" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1328125" customWidth="1"/>
+    <col min="4609" max="4609" width="4.265625" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1328125" customWidth="1"/>
+    <col min="4865" max="4865" width="4.265625" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1328125" customWidth="1"/>
+    <col min="5121" max="5121" width="4.265625" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1328125" customWidth="1"/>
+    <col min="5377" max="5377" width="4.265625" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1328125" customWidth="1"/>
+    <col min="5633" max="5633" width="4.265625" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1328125" customWidth="1"/>
+    <col min="5889" max="5889" width="4.265625" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1328125" customWidth="1"/>
+    <col min="6145" max="6145" width="4.265625" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1328125" customWidth="1"/>
+    <col min="6401" max="6401" width="4.265625" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1328125" customWidth="1"/>
+    <col min="6657" max="6657" width="4.265625" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1328125" customWidth="1"/>
+    <col min="6913" max="6913" width="4.265625" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1328125" customWidth="1"/>
+    <col min="7169" max="7169" width="4.265625" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1328125" customWidth="1"/>
+    <col min="7425" max="7425" width="4.265625" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1328125" customWidth="1"/>
+    <col min="7681" max="7681" width="4.265625" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1328125" customWidth="1"/>
+    <col min="7937" max="7937" width="4.265625" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1328125" customWidth="1"/>
+    <col min="8193" max="8193" width="4.265625" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1328125" customWidth="1"/>
+    <col min="8449" max="8449" width="4.265625" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1328125" customWidth="1"/>
+    <col min="8705" max="8705" width="4.265625" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1328125" customWidth="1"/>
+    <col min="8961" max="8961" width="4.265625" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1328125" customWidth="1"/>
+    <col min="9217" max="9217" width="4.265625" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1328125" customWidth="1"/>
+    <col min="9473" max="9473" width="4.265625" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1328125" customWidth="1"/>
+    <col min="9729" max="9729" width="4.265625" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1328125" customWidth="1"/>
+    <col min="9985" max="9985" width="4.265625" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1328125" customWidth="1"/>
+    <col min="10241" max="10241" width="4.265625" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1328125" customWidth="1"/>
+    <col min="10497" max="10497" width="4.265625" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1328125" customWidth="1"/>
+    <col min="10753" max="10753" width="4.265625" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1328125" customWidth="1"/>
+    <col min="11009" max="11009" width="4.265625" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1328125" customWidth="1"/>
+    <col min="11265" max="11265" width="4.265625" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1328125" customWidth="1"/>
+    <col min="11521" max="11521" width="4.265625" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1328125" customWidth="1"/>
+    <col min="11777" max="11777" width="4.265625" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1328125" customWidth="1"/>
+    <col min="12033" max="12033" width="4.265625" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1328125" customWidth="1"/>
+    <col min="12289" max="12289" width="4.265625" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1328125" customWidth="1"/>
+    <col min="12545" max="12545" width="4.265625" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1328125" customWidth="1"/>
+    <col min="12801" max="12801" width="4.265625" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1328125" customWidth="1"/>
+    <col min="13057" max="13057" width="4.265625" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1328125" customWidth="1"/>
+    <col min="13313" max="13313" width="4.265625" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1328125" customWidth="1"/>
+    <col min="13569" max="13569" width="4.265625" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1328125" customWidth="1"/>
+    <col min="13825" max="13825" width="4.265625" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1328125" customWidth="1"/>
+    <col min="14081" max="14081" width="4.265625" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1328125" customWidth="1"/>
+    <col min="14337" max="14337" width="4.265625" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1328125" customWidth="1"/>
+    <col min="14593" max="14593" width="4.265625" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1328125" customWidth="1"/>
+    <col min="14849" max="14849" width="4.265625" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1328125" customWidth="1"/>
+    <col min="15105" max="15105" width="4.265625" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1328125" customWidth="1"/>
+    <col min="15361" max="15361" width="4.265625" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1328125" customWidth="1"/>
+    <col min="15617" max="15617" width="4.265625" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1328125" customWidth="1"/>
+    <col min="15873" max="15873" width="4.265625" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1328125" customWidth="1"/>
+    <col min="16129" max="16129" width="4.265625" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="6"/>
       <c r="B1" s="76" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="J2" s="77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="131" t="s">
         <v>129</v>
@@ -7861,7 +7862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="131" t="s">
         <v>25</v>
@@ -7886,7 +7887,7 @@
         <v>0.1917136686385521</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="80" t="s">
         <v>132</v>
@@ -7908,7 +7909,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="81" t="s">
         <v>20</v>
@@ -7932,17 +7933,17 @@
         <v>136</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>138</v>
@@ -7974,7 +7975,7 @@
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>139</v>
@@ -8006,7 +8007,7 @@
       <c r="O8" s="85"/>
       <c r="P8" s="85"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
         <v>140</v>
       </c>
@@ -8035,7 +8036,7 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
         <v>141</v>
       </c>
@@ -8064,7 +8065,7 @@
       <c r="M10" s="85"/>
       <c r="N10" s="85"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>142</v>
       </c>
@@ -8093,7 +8094,7 @@
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -8118,7 +8119,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
@@ -8143,7 +8144,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B14" s="86" t="s">
         <v>23</v>
       </c>
@@ -8168,7 +8169,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B15" s="86" t="s">
         <v>143</v>
       </c>
@@ -8193,7 +8194,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B16" s="86" t="s">
         <v>144</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>8023.9349999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
@@ -8230,7 +8231,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="F21" s="87" t="s">
         <v>146</v>
       </c>
@@ -8238,12 +8239,12 @@
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="138" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
       <c r="F22" s="89" t="s">
         <v>148</v>
       </c>
@@ -8251,12 +8252,12 @@
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="138" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
       <c r="F23" s="90">
         <f>SUMPRODUCT(C25:C27,D25:D27)/SUM(D25:D27)</f>
         <v>6.8617832470217896E-2</v>
@@ -8265,7 +8266,7 @@
       <c r="H23" s="88"/>
       <c r="I23" s="88"/>
     </row>
-    <row r="24" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B24" s="91" t="s">
         <v>20</v>
       </c>
@@ -8280,7 +8281,7 @@
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="86" t="s">
         <v>149</v>
       </c>
@@ -8296,7 +8297,7 @@
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="86" t="s">
         <v>150</v>
       </c>
@@ -8311,7 +8312,7 @@
       <c r="H26" s="88"/>
       <c r="I26" s="88"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="86" t="s">
         <v>151</v>
       </c>
@@ -8321,38 +8322,38 @@
       <c r="D27" s="96">
         <v>928.7</v>
       </c>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" s="76" t="s">
         <v>153</v>
       </c>
@@ -8361,34 +8362,34 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="141" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B34" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="143"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="142"/>
       <c r="E34" s="98"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="128" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B35" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="129"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="99"/>
       <c r="F35" s="78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B36" s="80" t="s">
         <v>20</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>0.76320678028475641</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B37" s="101">
         <v>2019</v>
       </c>
@@ -8417,7 +8418,7 @@
       <c r="E37" s="104"/>
       <c r="F37" s="88"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B38" s="101">
         <v>2018</v>
       </c>
@@ -8430,7 +8431,7 @@
       <c r="E38" s="104"/>
       <c r="F38" s="88"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B39" s="101">
         <v>2017</v>
       </c>
@@ -8443,17 +8444,17 @@
       <c r="E39" s="104"/>
       <c r="F39" s="88"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B42" s="76" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J43" s="77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B44" s="131" t="s">
         <v>159</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B45" s="131" t="s">
         <v>25</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>0.15765869631908236</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B46" s="80" t="s">
         <v>132</v>
       </c>
@@ -8518,7 +8519,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B47" s="81" t="s">
         <v>20</v>
       </c>
@@ -8541,17 +8542,17 @@
         <v>136</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="137" t="s">
+      <c r="J47" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="137"/>
-      <c r="P47" s="137"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="130"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B48" s="7">
         <v>2019</v>
       </c>
@@ -8582,7 +8583,7 @@
       <c r="O48" s="85"/>
       <c r="P48" s="85"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B49" s="7">
         <v>2018</v>
       </c>
@@ -8611,7 +8612,7 @@
       <c r="M49" s="85"/>
       <c r="N49" s="85"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B50" s="7">
         <v>2017</v>
       </c>
@@ -8640,7 +8641,7 @@
       <c r="M50" s="85"/>
       <c r="N50" s="85"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B51" s="7">
         <v>2016</v>
       </c>
@@ -8669,7 +8670,7 @@
       <c r="M51" s="85"/>
       <c r="N51" s="85"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B52" s="7">
         <v>2015</v>
       </c>
@@ -8694,7 +8695,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B53" s="86">
         <v>2014</v>
       </c>
@@ -8719,7 +8720,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B54" s="86">
         <v>2013</v>
       </c>
@@ -8744,7 +8745,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B55" s="86">
         <v>2012</v>
       </c>
@@ -8769,7 +8770,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B56" s="86">
         <v>2011</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>7746.4999999999991</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B57" s="86">
         <v>2010</v>
       </c>
@@ -8817,23 +8818,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F27:K29"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="J47:P47"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F27:K29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8841,14 +8842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -8866,7 +8867,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -8884,7 +8885,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -8900,7 +8901,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>107</v>
       </c>
@@ -8918,7 +8919,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -8936,7 +8937,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -8954,7 +8955,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -8970,7 +8971,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="50" t="s">
         <v>81</v>
       </c>
@@ -9014,8 +9015,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="51">
@@ -9058,8 +9059,8 @@
         <v>94331</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
       </c>
@@ -9100,8 +9101,8 @@
         <v>93132</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
       </c>
@@ -9142,8 +9143,8 @@
         <v>101822</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
       </c>
@@ -9184,8 +9185,8 @@
         <v>96875</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
       </c>
@@ -9226,8 +9227,8 @@
         <v>97324</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
       </c>
@@ -9268,8 +9269,8 @@
         <v>95286</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
       </c>
@@ -9310,8 +9311,8 @@
         <v>95951</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
       </c>
@@ -9352,8 +9353,8 @@
         <v>99793</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
       </c>
@@ -9394,8 +9395,8 @@
         <v>101541</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
       </c>
@@ -9436,8 +9437,8 @@
         <v>107493</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
       </c>
@@ -9478,8 +9479,8 @@
         <v>108617</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
       </c>
@@ -9520,8 +9521,8 @@
         <v>109607</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
       </c>
@@ -9562,8 +9563,8 @@
         <v>113605</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
       </c>
@@ -9604,8 +9605,8 @@
         <v>109564.88503064183</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
       </c>
@@ -9646,8 +9647,8 @@
         <v>101667.66816909495</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
       </c>
@@ -9688,8 +9689,8 @@
         <v>109297</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
       </c>
@@ -9730,8 +9731,8 @@
         <v>101705.77012559999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
       </c>
@@ -9772,8 +9773,8 @@
         <v>110764.95492887127</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
       </c>
@@ -9814,8 +9815,8 @@
         <v>104204.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
       </c>
@@ -9856,8 +9857,8 @@
         <v>101457</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>110022</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -9993,14 +9994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -10018,7 +10019,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -10036,7 +10037,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -10052,7 +10053,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>106</v>
       </c>
@@ -10070,7 +10071,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -10088,7 +10089,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -10106,7 +10107,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10122,7 +10123,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="50" t="s">
         <v>79</v>
       </c>
@@ -10166,8 +10167,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="51">
@@ -10210,8 +10211,8 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
       </c>
@@ -10252,8 +10253,8 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
       </c>
@@ -10294,8 +10295,8 @@
         <v>40566</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
       </c>
@@ -10336,8 +10337,8 @@
         <v>36685</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
       </c>
@@ -10378,8 +10379,8 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
       </c>
@@ -10420,8 +10421,8 @@
         <v>36557</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
       </c>
@@ -10462,8 +10463,8 @@
         <v>40650</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
       </c>
@@ -10504,8 +10505,8 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
       </c>
@@ -10546,8 +10547,8 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
       </c>
@@ -10588,8 +10589,8 @@
         <v>47948</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
       </c>
@@ -10630,8 +10631,8 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
       </c>
@@ -10672,8 +10673,8 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
       </c>
@@ -10714,8 +10715,8 @@
         <v>47805.654799999997</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
       </c>
@@ -10756,8 +10757,8 @@
         <v>46911.623420000004</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
       </c>
@@ -10798,8 +10799,8 @@
         <v>44715.734390000012</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
       </c>
@@ -10840,8 +10841,8 @@
         <v>51642</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
       </c>
@@ -10882,8 +10883,8 @@
         <v>45544.785926000004</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
       </c>
@@ -10924,8 +10925,8 @@
         <v>53642.439892999988</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
       </c>
@@ -10966,8 +10967,8 @@
         <v>48361.714998000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
       </c>
@@ -11008,8 +11009,8 @@
         <v>44934.24882299998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>57932.432542000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>52669.430516428569</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -11145,14 +11146,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -11170,7 +11171,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -11188,7 +11189,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11204,7 +11205,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>103</v>
       </c>
@@ -11222,7 +11223,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -11240,7 +11241,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -11258,7 +11259,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -11274,7 +11275,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
@@ -11318,8 +11319,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="51">
@@ -11362,8 +11363,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
       </c>
@@ -11404,8 +11405,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
       </c>
@@ -11446,8 +11447,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
       </c>
@@ -11488,8 +11489,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
       </c>
@@ -11530,8 +11531,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
       </c>
@@ -11572,8 +11573,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
       </c>
@@ -11614,8 +11615,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
       </c>
@@ -11656,8 +11657,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
       </c>
@@ -11698,8 +11699,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
       </c>
@@ -11740,8 +11741,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
       </c>
@@ -11782,8 +11783,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
       </c>
@@ -11824,8 +11825,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
       </c>
@@ -11866,8 +11867,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
       </c>
@@ -11908,8 +11909,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
       </c>
@@ -11950,8 +11951,8 @@
         <v>90848.02</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
       </c>
@@ -11992,8 +11993,8 @@
         <v>79051.785450000025</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
       </c>
@@ -12034,8 +12035,8 @@
         <v>69270</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
       </c>
@@ -12076,8 +12077,8 @@
         <v>95803.3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
       </c>
@@ -12118,8 +12119,8 @@
         <v>91339</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
       </c>
@@ -12160,8 +12161,8 @@
         <v>85296</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>99054</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>97900.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>98608.8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
@@ -12301,7 +12302,7 @@
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
@@ -12315,7 +12316,7 @@
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
@@ -12329,7 +12330,7 @@
       <c r="M34" s="53"/>
       <c r="N34" s="53"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -12353,14 +12354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -12378,7 +12379,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -12396,7 +12397,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12412,7 +12413,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>105</v>
       </c>
@@ -12430,7 +12431,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -12448,7 +12449,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -12466,7 +12467,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -12482,7 +12483,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
@@ -12526,8 +12527,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="51">
@@ -12570,8 +12571,8 @@
         <v>48274</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
       </c>
@@ -12612,8 +12613,8 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
       </c>
@@ -12654,8 +12655,8 @@
         <v>26725</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
       </c>
@@ -12696,8 +12697,8 @@
         <v>25415</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
       </c>
@@ -12738,8 +12739,8 @@
         <v>30137</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
       </c>
@@ -12780,8 +12781,8 @@
         <v>25951</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
       </c>
@@ -12822,8 +12823,8 @@
         <v>27710</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
       </c>
@@ -12864,8 +12865,8 @@
         <v>27259</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
       </c>
@@ -12906,8 +12907,8 @@
         <v>29782</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
       </c>
@@ -12948,8 +12949,8 @@
         <v>31764</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
       </c>
@@ -12990,8 +12991,8 @@
         <v>30331</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
       </c>
@@ -13032,8 +13033,8 @@
         <v>29560</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
       </c>
@@ -13074,8 +13075,8 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
       </c>
@@ -13116,8 +13117,8 @@
         <v>32027.600315534684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
       </c>
@@ -13158,8 +13159,8 @@
         <v>37555.231023997796</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
       </c>
@@ -13200,8 +13201,8 @@
         <v>39242.485585366201</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
       </c>
@@ -13242,8 +13243,8 @@
         <v>33281.504999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
       </c>
@@ -13284,8 +13285,8 @@
         <v>37044.879262497503</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
       </c>
@@ -13326,8 +13327,8 @@
         <v>33526.535999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
       </c>
@@ -13368,8 +13369,8 @@
         <v>30846.952388628401</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>41533.675000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>39984.583269292452</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -13505,14 +13506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -13530,7 +13531,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -13548,7 +13549,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -13564,7 +13565,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
@@ -13582,7 +13583,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -13600,7 +13601,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -13618,7 +13619,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -13634,7 +13635,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="50" t="s">
         <v>48</v>
       </c>
@@ -13678,8 +13679,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="51">
@@ -13722,8 +13723,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
       </c>
@@ -13764,8 +13765,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
       </c>
@@ -13806,8 +13807,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
       </c>
@@ -13848,8 +13849,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
       </c>
@@ -13890,8 +13891,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
       </c>
@@ -13932,8 +13933,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
       </c>
@@ -13974,8 +13975,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
       </c>
@@ -14016,8 +14017,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
       </c>
@@ -14058,8 +14059,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
       </c>
@@ -14100,8 +14101,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
       </c>
@@ -14142,8 +14143,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
       </c>
@@ -14184,8 +14185,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
       </c>
@@ -14226,8 +14227,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
       </c>
@@ -14268,8 +14269,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
       </c>
@@ -14310,8 +14311,8 @@
         <v>115535</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
       </c>
@@ -14352,8 +14353,8 @@
         <v>122418</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
       </c>
@@ -14394,8 +14395,8 @@
         <v>109947.899</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
       </c>
@@ -14436,8 +14437,8 @@
         <v>124072</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
       </c>
@@ -14478,8 +14479,8 @@
         <v>114047.334</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
       </c>
@@ -14520,8 +14521,8 @@
         <v>104494</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
       </c>
@@ -14562,7 +14563,7 @@
         <v>131021</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -14606,7 +14607,7 @@
         <v>125798</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -14657,14 +14658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -14682,7 +14683,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -14700,7 +14701,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -14716,7 +14717,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>98</v>
       </c>
@@ -14734,7 +14735,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -14752,7 +14753,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="34" t="s">
         <v>63</v>
       </c>
@@ -14770,7 +14771,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -14786,7 +14787,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="36" t="s">
         <v>69</v>
       </c>
@@ -14830,8 +14831,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="37">
@@ -14874,8 +14875,8 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="147"/>
       <c r="B10" s="39">
         <v>1997</v>
       </c>
@@ -14916,8 +14917,8 @@
         <v>41178</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="147"/>
       <c r="B11" s="39">
         <v>1998</v>
       </c>
@@ -14958,8 +14959,8 @@
         <v>41728</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="147"/>
       <c r="B12" s="39">
         <v>1999</v>
       </c>
@@ -15000,8 +15001,8 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="147"/>
       <c r="B13" s="39">
         <v>2000</v>
       </c>
@@ -15042,8 +15043,8 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="147"/>
       <c r="B14" s="39">
         <v>2001</v>
       </c>
@@ -15084,8 +15085,8 @@
         <v>42540</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="147"/>
       <c r="B15" s="39">
         <v>2002</v>
       </c>
@@ -15126,8 +15127,8 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="147"/>
       <c r="B16" s="39">
         <v>2003</v>
       </c>
@@ -15168,8 +15169,8 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="147"/>
       <c r="B17" s="39">
         <v>2004</v>
       </c>
@@ -15210,8 +15211,8 @@
         <v>67224</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="147"/>
       <c r="B18" s="39">
         <v>2005</v>
       </c>
@@ -15252,8 +15253,8 @@
         <v>46828</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="147"/>
       <c r="B19" s="39">
         <v>2006</v>
       </c>
@@ -15294,8 +15295,8 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="147"/>
       <c r="B20" s="39">
         <v>2007</v>
       </c>
@@ -15336,8 +15337,8 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" s="147"/>
       <c r="B21" s="39">
         <v>2008</v>
       </c>
@@ -15378,8 +15379,8 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" s="147"/>
       <c r="B22" s="39">
         <v>2009</v>
       </c>
@@ -15420,8 +15421,8 @@
         <v>44864.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="147"/>
       <c r="B23" s="39">
         <v>2010</v>
       </c>
@@ -15462,8 +15463,8 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" s="147"/>
       <c r="B24" s="39">
         <v>2011</v>
       </c>
@@ -15504,8 +15505,8 @@
         <v>46788</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
       </c>
@@ -15546,8 +15547,8 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
       </c>
@@ -15588,8 +15589,8 @@
         <v>45908.1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
       </c>
@@ -15630,8 +15631,8 @@
         <v>42907</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
       </c>
@@ -15672,8 +15673,8 @@
         <v>39411</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -15758,7 +15759,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
